--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamhan/Desktop/GitHub/CMUSAIL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B20C5DA-813F-264D-ABE4-85A4CD004CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2403760-EF75-EF4D-8DB0-1F51786D68B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1520" yWindow="3280" windowWidth="27640" windowHeight="16020" xr2:uid="{01AFD88A-C7D8-9942-BBC1-B4284F4A92CF}"/>
+    <workbookView xWindow="3820" yWindow="1240" windowWidth="27640" windowHeight="16020" xr2:uid="{01AFD88A-C7D8-9942-BBC1-B4284F4A92CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B694215-B78F-8E43-88F4-3180059C016A}">
-  <dimension ref="A1:AF21"/>
+  <dimension ref="A1:AF40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="K1" sqref="K1:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1849,6 +1849,101 @@
         <v>77</v>
       </c>
     </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/williamhan/Desktop/GitHub/CMUSAIL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2403760-EF75-EF4D-8DB0-1F51786D68B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC5E3DA-7073-3F46-AE1E-FD65EE8EE81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3820" yWindow="1240" windowWidth="27640" windowHeight="16020" xr2:uid="{01AFD88A-C7D8-9942-BBC1-B4284F4A92CF}"/>
   </bookViews>
@@ -620,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B694215-B78F-8E43-88F4-3180059C016A}">
-  <dimension ref="A1:AF40"/>
+  <dimension ref="A1:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:V14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1939,11 +1939,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="7:7" x14ac:dyDescent="0.2">
-      <c r="G40">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
